--- a/src/main/webapp/importTpl/userImportTpl.xlsx
+++ b/src/main/webapp/importTpl/userImportTpl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>XXXXx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据只取A-O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +202,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,10 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -542,7 +554,7 @@
     <col min="15" max="15" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +600,11 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -636,7 +651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
